--- a/public/template_penduduk.xlsx
+++ b/public/template_penduduk.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>NIK</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Pendidikan Terakhir</t>
+  </si>
+  <si>
+    <t>Pekerjaan</t>
+  </si>
+  <si>
+    <t>Status Dalam Keluarga</t>
   </si>
 </sst>
 </file>
@@ -415,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:Q1"/>
+      <selection activeCell="A1" sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -440,9 +452,13 @@
     <col min="15" max="15" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="25.851" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,6 +509,18 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
